--- a/Document/Product-Backlog.xlsx
+++ b/Document/Product-Backlog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -152,9 +152,6 @@
     <t xml:space="preserve">choose layout type, backgroud </t>
   </si>
   <si>
-    <t xml:space="preserve">design products catalogue and display products </t>
-  </si>
-  <si>
     <t>Add new template</t>
   </si>
   <si>
@@ -204,6 +201,36 @@
   </si>
   <si>
     <t>view site in two different devices (computer or mobile)</t>
+  </si>
+  <si>
+    <t>site owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update, insert, delete product's details information </t>
+  </si>
+  <si>
+    <t>premium user</t>
+  </si>
+  <si>
+    <t>map exist domain to created template/theme website</t>
+  </si>
+  <si>
+    <t>access new template/theme with current domain</t>
+  </si>
+  <si>
+    <t>Website domain</t>
+  </si>
+  <si>
+    <t>generate a sub-domain for created website</t>
+  </si>
+  <si>
+    <t>access my created product catalogue site</t>
+  </si>
+  <si>
+    <t>manage website's user</t>
+  </si>
+  <si>
+    <t>delete, create, update website's member</t>
   </si>
 </sst>
 </file>
@@ -475,7 +502,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -540,6 +567,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="143">
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
@@ -686,7 +716,55 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -868,30 +946,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1049,12 +1103,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1325,11 +1373,11 @@
           <c:downBars/>
         </c:upDownBars>
         <c:smooth val="0"/>
-        <c:axId val="-558416368"/>
-        <c:axId val="-558418544"/>
+        <c:axId val="-558428336"/>
+        <c:axId val="-558419632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-558416368"/>
+        <c:axId val="-558428336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,7 +1422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-558418544"/>
+        <c:crossAx val="-558419632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1382,7 +1430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-558418544"/>
+        <c:axId val="-558419632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1415,7 +1463,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-558416368"/>
+        <c:crossAx val="-558428336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1452,7 +1500,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,37 +1524,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I18" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A1:I18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I19" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A1:I19"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="id" dataDxfId="24"/>
-    <tableColumn id="2" name="theme" dataDxfId="23"/>
-    <tableColumn id="3" name="as a/an" dataDxfId="22"/>
-    <tableColumn id="4" name="I want to…" dataDxfId="21"/>
-    <tableColumn id="5" name="so that I can…" dataDxfId="20"/>
-    <tableColumn id="6" name="notes" dataDxfId="19"/>
-    <tableColumn id="9" name="acceptance criteria" dataDxfId="18"/>
-    <tableColumn id="7" name="added in sprint" dataDxfId="17"/>
-    <tableColumn id="8" name="story points" dataDxfId="16"/>
+    <tableColumn id="1" name="id" dataDxfId="28"/>
+    <tableColumn id="2" name="theme" dataDxfId="27"/>
+    <tableColumn id="3" name="as a/an" dataDxfId="26"/>
+    <tableColumn id="4" name="I want to…" dataDxfId="25"/>
+    <tableColumn id="5" name="so that I can…" dataDxfId="24"/>
+    <tableColumn id="6" name="notes" dataDxfId="23"/>
+    <tableColumn id="9" name="acceptance criteria" dataDxfId="22"/>
+    <tableColumn id="7" name="added in sprint" dataDxfId="21"/>
+    <tableColumn id="8" name="story points" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:J6" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:J6" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:J6"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="id" dataDxfId="9"/>
-    <tableColumn id="2" name="theme" dataDxfId="8"/>
-    <tableColumn id="3" name="as a/an" dataDxfId="7"/>
-    <tableColumn id="4" name="I want to…" dataDxfId="6"/>
-    <tableColumn id="5" name="so that…" dataDxfId="5"/>
-    <tableColumn id="6" name="notes" dataDxfId="4"/>
-    <tableColumn id="9" name="acceptance criteria" dataDxfId="3"/>
-    <tableColumn id="11" name="added in sprint" dataDxfId="2"/>
-    <tableColumn id="10" name="closed in sprint" dataDxfId="1"/>
-    <tableColumn id="8" name="story points" dataDxfId="0"/>
+    <tableColumn id="1" name="id" dataDxfId="17"/>
+    <tableColumn id="2" name="theme" dataDxfId="16"/>
+    <tableColumn id="3" name="as a/an" dataDxfId="15"/>
+    <tableColumn id="4" name="I want to…" dataDxfId="14"/>
+    <tableColumn id="5" name="so that…" dataDxfId="13"/>
+    <tableColumn id="6" name="notes" dataDxfId="12"/>
+    <tableColumn id="9" name="acceptance criteria" dataDxfId="11"/>
+    <tableColumn id="11" name="added in sprint" dataDxfId="10"/>
+    <tableColumn id="10" name="closed in sprint" dataDxfId="9"/>
+    <tableColumn id="8" name="story points" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1797,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -1886,9 +1934,7 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="16">
-        <v>1</v>
-      </c>
+      <c r="H3" s="16"/>
       <c r="K3" s="4" t="str">
         <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
         <v>As a / an user I want to view a set of popular template site. so that I can quickly choose what is suitable  for coperation.</v>
@@ -1932,7 +1978,9 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="H5" s="16">
+        <v>1</v>
+      </c>
       <c r="K5" s="4" t="str">
         <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
         <v>As a / an user I want to register on the website so that I can access secure areas.</v>
@@ -1959,7 +2007,7 @@
         <v>As a / an user I want to be able to reset my password so that I can still access my account even if I forget my password.</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1981,27 +2029,25 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
       <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="K8" s="4" t="str">
-        <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
-        <v>As a / an authenticated user I want to be able to manage my profile details so that I can update or changed personal details and view created template</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -2009,41 +2055,43 @@
         <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="K9" s="4" t="str">
         <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
-        <v>As a / an authenticated user I want to be able to log out of the website so that I can my private information is kept secure when accessing the site on a shared computer</v>
+        <v>As a / an authenticated user I want to be able to manage my profile details so that I can update or changed personal details and view created template</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
       <c r="K10" s="4" t="str">
         <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
-        <v>As a / an authenticated user I want to view all available template so that I can choose quickly a template site</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+        <v>As a / an authenticated user I want to be able to log out of the website so that I can my private information is kept secure when accessing the site on a shared computer</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
@@ -2051,61 +2099,59 @@
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="K11" s="4" t="str">
         <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
-        <v>As a / an authenticated user I want to search for template by main color, display type so that I can choose what is the most suitable for corporation</v>
+        <v>As a / an authenticated user I want to view all available template so that I can choose quickly a template site</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="K12" s="4" t="str">
         <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
-        <v>As a / an authenticated user I want to drag &amp; drop site element so that I can  create a back bone of a catalogue site</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+        <v>As a / an authenticated user I want to search for template by main color, display type so that I can choose what is the most suitable for corporation</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="21"/>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
       <c r="K13" s="4" t="str">
         <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
-        <v>As a / an authenticated user I want to view site in two different devices (computer or mobile) so that I can design website under different devices's view.</v>
+        <v>As a / an authenticated user I want to drag &amp; drop site element so that I can  create a back bone of a catalogue site</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="24" x14ac:dyDescent="0.25">
@@ -2117,10 +2163,10 @@
         <v>26</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="23"/>
@@ -2128,37 +2174,45 @@
       <c r="I14" s="21"/>
       <c r="K14" s="4" t="str">
         <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
-        <v>As a / an authenticated user I want to choose layout type, backgroud  so that I can choose what is the most suitable for corporation</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>As a / an authenticated user I want to view site in two different devices (computer or mobile) so that I can design website under different devices's view.</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>35</v>
+      </c>
       <c r="F15" s="22"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="21"/>
       <c r="K15" s="4" t="str">
         <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
-        <v xml:space="preserve">As a / an  I want to  so that I can </v>
+        <v>As a / an authenticated user I want to choose layout type, backgroud  so that I can choose what is the most suitable for corporation</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
@@ -2166,50 +2220,73 @@
       <c r="I16" s="21"/>
       <c r="K16" s="4" t="str">
         <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
-        <v xml:space="preserve">As a / an authenticated user I want to manage product's details information so that I can design products catalogue and display products </v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">As a / an site owner I want to manage product's details information so that I can update, insert, delete product's details information </v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="B17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>42</v>
+      </c>
       <c r="F17" s="22"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="21"/>
       <c r="K17" s="4" t="str">
         <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
-        <v xml:space="preserve">As a / an  I want to  so that I can </v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="48" x14ac:dyDescent="0.25">
+        <v>As a / an authenticated user I want to Add new template so that I can add new template to templeta page. Design, naming, pricing this template</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="21" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="21"/>
-      <c r="K18" s="4" t="str">
-        <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
-        <v>As a / an authenticated user I want to Add new template so that I can add new template to templeta page. Design, naming, pricing this template</v>
-      </c>
+    </row>
+    <row r="19" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="21"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:I1048576">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2273,7 +2350,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -2285,7 +2362,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -2393,22 +2470,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J1048576">
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:J6">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2446,12 +2523,12 @@
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -2459,33 +2536,33 @@
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>48</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>49</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="G4" s="24" t="s">
         <v>51</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="B5" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>54</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>55</v>
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="25"/>
@@ -2743,7 +2820,10 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-155</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-155</Url><Description>WORK-769-155</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -2789,10 +2869,16 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-155</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-155</Url><Description>WORK-769-155</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
 <xsd:schema targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f7c28edf12e174e47f2c7bd2736e8bd" ns2:_="" ns3:_="" ns4:_="" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d93dc7d-5998-434b-bf34-aa89b432ec07" xmlns:ns3="$ListId:Shared Documents;" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4">
 <xsd:import namespace="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
 <xsd:import namespace="$ListId:Shared Documents;"/>
@@ -2966,24 +3052,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29BDFB93-A148-4832-8767-0A894C12A9C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C0C9F9C-98B5-480F-B2D6-CAE7CFAF0133}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
@@ -3001,7 +3070,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29BDFB93-A148-4832-8767-0A894C12A9C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8575168F-6331-41DA-B879-8152475B9854}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{409E313D-90F0-4096-93B6-F0B4A8E845DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3019,12 +3104,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8575168F-6331-41DA-B879-8152475B9854}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Document/Product-Backlog.xlsx
+++ b/Document/Product-Backlog.xlsx
@@ -555,6 +555,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -567,9 +570,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="143">
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
@@ -716,55 +716,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <font>
         <strike val="0"/>
@@ -946,6 +898,30 @@
     </dxf>
     <dxf>
       <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1104,6 +1080,12 @@
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1153,7 +1135,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1373,11 +1354,11 @@
           <c:downBars/>
         </c:upDownBars>
         <c:smooth val="0"/>
-        <c:axId val="-558428336"/>
-        <c:axId val="-558419632"/>
+        <c:axId val="947590176"/>
+        <c:axId val="947595072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-558428336"/>
+        <c:axId val="947590176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1405,7 +1386,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0_);\(#,##0\)" sourceLinked="0"/>
@@ -1422,7 +1402,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-558419632"/>
+        <c:crossAx val="947595072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1430,7 +1410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-558419632"/>
+        <c:axId val="947595072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1456,14 +1436,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-558428336"/>
+        <c:crossAx val="947590176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1500,7 +1479,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1524,37 +1503,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I19" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I19" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:I19"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="id" dataDxfId="28"/>
-    <tableColumn id="2" name="theme" dataDxfId="27"/>
-    <tableColumn id="3" name="as a/an" dataDxfId="26"/>
-    <tableColumn id="4" name="I want to…" dataDxfId="25"/>
-    <tableColumn id="5" name="so that I can…" dataDxfId="24"/>
-    <tableColumn id="6" name="notes" dataDxfId="23"/>
-    <tableColumn id="9" name="acceptance criteria" dataDxfId="22"/>
-    <tableColumn id="7" name="added in sprint" dataDxfId="21"/>
-    <tableColumn id="8" name="story points" dataDxfId="20"/>
+    <tableColumn id="1" name="id" dataDxfId="24"/>
+    <tableColumn id="2" name="theme" dataDxfId="23"/>
+    <tableColumn id="3" name="as a/an" dataDxfId="22"/>
+    <tableColumn id="4" name="I want to…" dataDxfId="21"/>
+    <tableColumn id="5" name="so that I can…" dataDxfId="20"/>
+    <tableColumn id="6" name="notes" dataDxfId="19"/>
+    <tableColumn id="9" name="acceptance criteria" dataDxfId="18"/>
+    <tableColumn id="7" name="added in sprint" dataDxfId="17"/>
+    <tableColumn id="8" name="story points" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:J6" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:J6" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:J6"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="id" dataDxfId="17"/>
-    <tableColumn id="2" name="theme" dataDxfId="16"/>
-    <tableColumn id="3" name="as a/an" dataDxfId="15"/>
-    <tableColumn id="4" name="I want to…" dataDxfId="14"/>
-    <tableColumn id="5" name="so that…" dataDxfId="13"/>
-    <tableColumn id="6" name="notes" dataDxfId="12"/>
-    <tableColumn id="9" name="acceptance criteria" dataDxfId="11"/>
-    <tableColumn id="11" name="added in sprint" dataDxfId="10"/>
-    <tableColumn id="10" name="closed in sprint" dataDxfId="9"/>
-    <tableColumn id="8" name="story points" dataDxfId="8"/>
+    <tableColumn id="1" name="id" dataDxfId="9"/>
+    <tableColumn id="2" name="theme" dataDxfId="8"/>
+    <tableColumn id="3" name="as a/an" dataDxfId="7"/>
+    <tableColumn id="4" name="I want to…" dataDxfId="6"/>
+    <tableColumn id="5" name="so that…" dataDxfId="5"/>
+    <tableColumn id="6" name="notes" dataDxfId="4"/>
+    <tableColumn id="9" name="acceptance criteria" dataDxfId="3"/>
+    <tableColumn id="11" name="added in sprint" dataDxfId="2"/>
+    <tableColumn id="10" name="closed in sprint" dataDxfId="1"/>
+    <tableColumn id="8" name="story points" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1848,7 +1827,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -1986,7 +1965,7 @@
         <v>As a / an user I want to register on the website so that I can access secure areas.</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -2043,11 +2022,11 @@
         <v>67</v>
       </c>
       <c r="F8" s="22"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="21"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -2286,7 +2265,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:I1048576">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2470,22 +2449,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J1048576">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:J6">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2527,34 +2506,34 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="15" t="s">
         <v>52</v>
       </c>
@@ -2564,9 +2543,9 @@
       <c r="D5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
@@ -2820,65 +2799,7 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-155</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-155</Url><Description>WORK-769-155</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
 <xsd:schema targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f7c28edf12e174e47f2c7bd2736e8bd" ns2:_="" ns3:_="" ns4:_="" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d93dc7d-5998-434b-bf34-aa89b432ec07" xmlns:ns3="$ListId:Shared Documents;" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4">
 <xsd:import namespace="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
 <xsd:import namespace="$ListId:Shared Documents;"/>
@@ -3052,41 +2973,65 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C0C9F9C-98B5-480F-B2D6-CAE7CFAF0133}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29BDFB93-A148-4832-8767-0A894C12A9C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8575168F-6331-41DA-B879-8152475B9854}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-155</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-155</Url><Description>WORK-769-155</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{409E313D-90F0-4096-93B6-F0B4A8E845DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3104,4 +3049,38 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8575168F-6331-41DA-B879-8152475B9854}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29BDFB93-A148-4832-8767-0A894C12A9C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C0C9F9C-98B5-480F-B2D6-CAE7CFAF0133}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Document/Product-Backlog.xlsx
+++ b/Document/Product-Backlog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -98,9 +98,6 @@
     <t>admin</t>
   </si>
   <si>
-    <t>view controler dashboard page</t>
-  </si>
-  <si>
     <t>control and view statictis of the website.</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>drag &amp; drop site element</t>
   </si>
   <si>
-    <t xml:space="preserve"> create a back bone of a catalogue site</t>
-  </si>
-  <si>
     <t>design website under different devices's view.</t>
   </si>
   <si>
@@ -224,13 +218,22 @@
     <t>generate a sub-domain for created website</t>
   </si>
   <si>
-    <t>access my created product catalogue site</t>
-  </si>
-  <si>
     <t>manage website's user</t>
   </si>
   <si>
-    <t>delete, create, update website's member</t>
+    <t>view dashboard page</t>
+  </si>
+  <si>
+    <t>view, delete, create, update website's member</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> create a backbone of a catalogue site</t>
+  </si>
+  <si>
+    <t>choose what is the most suitable for products catalogue website</t>
+  </si>
+  <si>
+    <t>access my created product catalogue site via generated domain.</t>
   </si>
 </sst>
 </file>
@@ -1354,11 +1357,11 @@
           <c:downBars/>
         </c:upDownBars>
         <c:smooth val="0"/>
-        <c:axId val="947590176"/>
-        <c:axId val="947595072"/>
+        <c:axId val="-1155207072"/>
+        <c:axId val="-1155197280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="947590176"/>
+        <c:axId val="-1155207072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1402,7 +1405,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="947595072"/>
+        <c:crossAx val="-1155197280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1410,7 +1413,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="947595072"/>
+        <c:axId val="-1155197280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1442,7 +1445,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="947590176"/>
+        <c:crossAx val="-1155207072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1479,7 +1482,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,7 +1830,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -1838,7 +1841,7 @@
     <col min="4" max="4" width="34.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="39" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" style="1"/>
@@ -1994,17 +1997,17 @@
         <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="K7" s="4" t="str">
         <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
-        <v>As a / an admin I want to view controler dashboard page so that I can control and view statictis of the website.</v>
+        <v>As a / an admin I want to view dashboard page so that I can control and view statictis of the website.</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2016,10 +2019,10 @@
         <v>22</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="24"/>
@@ -2028,16 +2031,16 @@
     </row>
     <row r="9" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="6"/>
@@ -2049,16 +2052,16 @@
     </row>
     <row r="10" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="6"/>
@@ -2072,16 +2075,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="6"/>
@@ -2093,16 +2096,16 @@
     </row>
     <row r="12" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="6"/>
@@ -2114,38 +2117,38 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="K13" s="4" t="str">
         <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
-        <v>As a / an authenticated user I want to drag &amp; drop site element so that I can  create a back bone of a catalogue site</v>
+        <v>As a / an authenticated user I want to drag &amp; drop site element so that I can  create a backbone of a catalogue site</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="23"/>
@@ -2159,16 +2162,16 @@
     <row r="15" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="23"/>
@@ -2176,22 +2179,22 @@
       <c r="I15" s="21"/>
       <c r="K15" s="4" t="str">
         <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
-        <v>As a / an authenticated user I want to choose layout type, backgroud  so that I can choose what is the most suitable for corporation</v>
+        <v>As a / an authenticated user I want to choose layout type, backgroud  so that I can choose what is the most suitable for products catalogue website</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D16" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
@@ -2205,16 +2208,16 @@
     <row r="17" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="23"/>
@@ -2228,16 +2231,16 @@
     <row r="18" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C18" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>60</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>62</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="23"/>
@@ -2247,16 +2250,16 @@
     <row r="19" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="23"/>
@@ -2329,7 +2332,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -2341,7 +2344,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -2502,12 +2505,12 @@
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -2515,33 +2518,33 @@
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="25" t="s">
         <v>49</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>54</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="26"/>
@@ -2799,7 +2802,65 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-155</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-155</Url><Description>WORK-769-155</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
 <xsd:schema targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f7c28edf12e174e47f2c7bd2736e8bd" ns2:_="" ns3:_="" ns4:_="" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d93dc7d-5998-434b-bf34-aa89b432ec07" xmlns:ns3="$ListId:Shared Documents;" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4">
 <xsd:import namespace="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
 <xsd:import namespace="$ListId:Shared Documents;"/>
@@ -2973,65 +3034,41 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C0C9F9C-98B5-480F-B2D6-CAE7CFAF0133}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29BDFB93-A148-4832-8767-0A894C12A9C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-155</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-155</Url><Description>WORK-769-155</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8575168F-6331-41DA-B879-8152475B9854}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{409E313D-90F0-4096-93B6-F0B4A8E845DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3049,38 +3086,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8575168F-6331-41DA-B879-8152475B9854}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29BDFB93-A148-4832-8767-0A894C12A9C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C0C9F9C-98B5-480F-B2D6-CAE7CFAF0133}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Document/Product-Backlog.xlsx
+++ b/Document/Product-Backlog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -719,7 +719,55 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -901,30 +949,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1082,12 +1106,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1357,11 +1375,11 @@
           <c:downBars/>
         </c:upDownBars>
         <c:smooth val="0"/>
-        <c:axId val="-1155207072"/>
-        <c:axId val="-1155197280"/>
+        <c:axId val="1502366400"/>
+        <c:axId val="1502366944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1155207072"/>
+        <c:axId val="1502366400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1405,7 +1423,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1155197280"/>
+        <c:crossAx val="1502366944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1413,7 +1431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1155197280"/>
+        <c:axId val="1502366944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,7 +1463,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1155207072"/>
+        <c:crossAx val="1502366400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1482,7 +1500,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1506,37 +1524,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I19" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A1:I19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I20" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A1:I20"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="id" dataDxfId="24"/>
-    <tableColumn id="2" name="theme" dataDxfId="23"/>
-    <tableColumn id="3" name="as a/an" dataDxfId="22"/>
-    <tableColumn id="4" name="I want to…" dataDxfId="21"/>
-    <tableColumn id="5" name="so that I can…" dataDxfId="20"/>
-    <tableColumn id="6" name="notes" dataDxfId="19"/>
-    <tableColumn id="9" name="acceptance criteria" dataDxfId="18"/>
-    <tableColumn id="7" name="added in sprint" dataDxfId="17"/>
-    <tableColumn id="8" name="story points" dataDxfId="16"/>
+    <tableColumn id="1" name="id" dataDxfId="28"/>
+    <tableColumn id="2" name="theme" dataDxfId="27"/>
+    <tableColumn id="3" name="as a/an" dataDxfId="26"/>
+    <tableColumn id="4" name="I want to…" dataDxfId="25"/>
+    <tableColumn id="5" name="so that I can…" dataDxfId="24"/>
+    <tableColumn id="6" name="notes" dataDxfId="23"/>
+    <tableColumn id="9" name="acceptance criteria" dataDxfId="22"/>
+    <tableColumn id="7" name="added in sprint" dataDxfId="21"/>
+    <tableColumn id="8" name="story points" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:J6" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:J6" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:J6"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="id" dataDxfId="9"/>
-    <tableColumn id="2" name="theme" dataDxfId="8"/>
-    <tableColumn id="3" name="as a/an" dataDxfId="7"/>
-    <tableColumn id="4" name="I want to…" dataDxfId="6"/>
-    <tableColumn id="5" name="so that…" dataDxfId="5"/>
-    <tableColumn id="6" name="notes" dataDxfId="4"/>
-    <tableColumn id="9" name="acceptance criteria" dataDxfId="3"/>
-    <tableColumn id="11" name="added in sprint" dataDxfId="2"/>
-    <tableColumn id="10" name="closed in sprint" dataDxfId="1"/>
-    <tableColumn id="8" name="story points" dataDxfId="0"/>
+    <tableColumn id="1" name="id" dataDxfId="17"/>
+    <tableColumn id="2" name="theme" dataDxfId="16"/>
+    <tableColumn id="3" name="as a/an" dataDxfId="15"/>
+    <tableColumn id="4" name="I want to…" dataDxfId="14"/>
+    <tableColumn id="5" name="so that…" dataDxfId="13"/>
+    <tableColumn id="6" name="notes" dataDxfId="12"/>
+    <tableColumn id="9" name="acceptance criteria" dataDxfId="11"/>
+    <tableColumn id="11" name="added in sprint" dataDxfId="10"/>
+    <tableColumn id="10" name="closed in sprint" dataDxfId="9"/>
+    <tableColumn id="8" name="story points" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1827,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -2207,45 +2225,45 @@
     </row>
     <row r="17" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
-      <c r="B17" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>25</v>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>40</v>
+        <v>64</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="21"/>
-      <c r="K17" s="4" t="str">
-        <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
-        <v>As a / an authenticated user I want to Add new template so that I can add new template to templeta page. Design, naming, pricing this template</v>
-      </c>
     </row>
     <row r="18" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="21" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="21"/>
+      <c r="K18" s="4" t="str">
+        <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
+        <v>As a / an authenticated user I want to Add new template so that I can add new template to templeta page. Design, naming, pricing this template</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
@@ -2253,22 +2271,41 @@
         <v>61</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="21"/>
     </row>
+    <row r="20" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="21"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:I1048576">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2279,7 +2316,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$A$1:$A$11</xm:f>
@@ -2452,22 +2489,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J1048576">
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:J6">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2802,10 +2839,7 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-155</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-155</Url><Description>WORK-769-155</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -2851,16 +2885,10 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-155</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-155</Url><Description>WORK-769-155</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
 <xsd:schema targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f7c28edf12e174e47f2c7bd2736e8bd" ns2:_="" ns3:_="" ns4:_="" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d93dc7d-5998-434b-bf34-aa89b432ec07" xmlns:ns3="$ListId:Shared Documents;" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4">
 <xsd:import namespace="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
 <xsd:import namespace="$ListId:Shared Documents;"/>
@@ -3034,7 +3062,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29BDFB93-A148-4832-8767-0A894C12A9C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C0C9F9C-98B5-480F-B2D6-CAE7CFAF0133}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
@@ -3052,23 +3097,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29BDFB93-A148-4832-8767-0A894C12A9C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8575168F-6331-41DA-B879-8152475B9854}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{409E313D-90F0-4096-93B6-F0B4A8E845DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3086,4 +3115,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8575168F-6331-41DA-B879-8152475B9854}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Document/Product-Backlog.xlsx
+++ b/Document/Product-Backlog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
   <si>
     <t>id</t>
   </si>
@@ -71,9 +71,6 @@
     <t>view a set of popular template site.</t>
   </si>
   <si>
-    <t>quickly choose what is suitable  for coperation.</t>
-  </si>
-  <si>
     <t>Authentication</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>register on the website</t>
   </si>
   <si>
-    <t>access secure areas.</t>
-  </si>
-  <si>
     <t>be able to reset my password</t>
   </si>
   <si>
@@ -110,9 +104,6 @@
     <t>be able to manage my profile details</t>
   </si>
   <si>
-    <t>update or changed personal details and view created template</t>
-  </si>
-  <si>
     <t>be able to log out of the website</t>
   </si>
   <si>
@@ -131,9 +122,6 @@
     <t>search for template by main color, display type</t>
   </si>
   <si>
-    <t>choose what is the most suitable for corporation</t>
-  </si>
-  <si>
     <t>Website builder</t>
   </si>
   <si>
@@ -143,15 +131,6 @@
     <t>design website under different devices's view.</t>
   </si>
   <si>
-    <t xml:space="preserve">choose layout type, backgroud </t>
-  </si>
-  <si>
-    <t>Add new template</t>
-  </si>
-  <si>
-    <t>add new template to templeta page. Design, naming, pricing this template</t>
-  </si>
-  <si>
     <t>so that…</t>
   </si>
   <si>
@@ -191,9 +170,6 @@
     <t>manage product's details information</t>
   </si>
   <si>
-    <t>Product site management</t>
-  </si>
-  <si>
     <t>view site in two different devices (computer or mobile)</t>
   </si>
   <si>
@@ -218,22 +194,52 @@
     <t>generate a sub-domain for created website</t>
   </si>
   <si>
-    <t>manage website's user</t>
-  </si>
-  <si>
     <t>view dashboard page</t>
   </si>
   <si>
     <t>view, delete, create, update website's member</t>
   </si>
   <si>
-    <t xml:space="preserve"> create a backbone of a catalogue site</t>
-  </si>
-  <si>
     <t>choose what is the most suitable for products catalogue website</t>
   </si>
   <si>
     <t>access my created product catalogue site via generated domain.</t>
+  </si>
+  <si>
+    <t>overview available template/theme site</t>
+  </si>
+  <si>
+    <t>become a member</t>
+  </si>
+  <si>
+    <t>manage website's member</t>
+  </si>
+  <si>
+    <t>update or changed personal details and view created template history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choose layout, font type, backgroud </t>
+  </si>
+  <si>
+    <t>handle created template</t>
+  </si>
+  <si>
+    <t>add, remove created template.</t>
+  </si>
+  <si>
+    <t>Products management</t>
+  </si>
+  <si>
+    <t>design pages</t>
+  </si>
+  <si>
+    <t>duplicate, insert, delete website pages,</t>
+  </si>
+  <si>
+    <t>choose what is the most suitable template/theme for corporation</t>
+  </si>
+  <si>
+    <t>build content of each page</t>
   </si>
 </sst>
 </file>
@@ -719,19 +725,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <font>
         <strike/>
@@ -1375,11 +1369,11 @@
           <c:downBars/>
         </c:upDownBars>
         <c:smooth val="0"/>
-        <c:axId val="1502366400"/>
-        <c:axId val="1502366944"/>
+        <c:axId val="-674643824"/>
+        <c:axId val="-674639472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1502366400"/>
+        <c:axId val="-674643824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1423,7 +1417,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1502366944"/>
+        <c:crossAx val="-674639472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1431,7 +1425,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1502366944"/>
+        <c:axId val="-674639472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1463,7 +1457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1502366400"/>
+        <c:crossAx val="-674643824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1500,7 +1494,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1524,37 +1518,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I20" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I20" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:I20"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="id" dataDxfId="28"/>
-    <tableColumn id="2" name="theme" dataDxfId="27"/>
-    <tableColumn id="3" name="as a/an" dataDxfId="26"/>
-    <tableColumn id="4" name="I want to…" dataDxfId="25"/>
-    <tableColumn id="5" name="so that I can…" dataDxfId="24"/>
-    <tableColumn id="6" name="notes" dataDxfId="23"/>
-    <tableColumn id="9" name="acceptance criteria" dataDxfId="22"/>
-    <tableColumn id="7" name="added in sprint" dataDxfId="21"/>
-    <tableColumn id="8" name="story points" dataDxfId="20"/>
+    <tableColumn id="1" name="id" dataDxfId="26"/>
+    <tableColumn id="2" name="theme" dataDxfId="25"/>
+    <tableColumn id="3" name="as a/an" dataDxfId="24"/>
+    <tableColumn id="4" name="I want to…" dataDxfId="23"/>
+    <tableColumn id="5" name="so that I can…" dataDxfId="22"/>
+    <tableColumn id="6" name="notes" dataDxfId="21"/>
+    <tableColumn id="9" name="acceptance criteria" dataDxfId="20"/>
+    <tableColumn id="7" name="added in sprint" dataDxfId="19"/>
+    <tableColumn id="8" name="story points" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:J6" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:J6" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:J6"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="id" dataDxfId="17"/>
-    <tableColumn id="2" name="theme" dataDxfId="16"/>
-    <tableColumn id="3" name="as a/an" dataDxfId="15"/>
-    <tableColumn id="4" name="I want to…" dataDxfId="14"/>
-    <tableColumn id="5" name="so that…" dataDxfId="13"/>
-    <tableColumn id="6" name="notes" dataDxfId="12"/>
-    <tableColumn id="9" name="acceptance criteria" dataDxfId="11"/>
-    <tableColumn id="11" name="added in sprint" dataDxfId="10"/>
-    <tableColumn id="10" name="closed in sprint" dataDxfId="9"/>
-    <tableColumn id="8" name="story points" dataDxfId="8"/>
+    <tableColumn id="1" name="id" dataDxfId="15"/>
+    <tableColumn id="2" name="theme" dataDxfId="14"/>
+    <tableColumn id="3" name="as a/an" dataDxfId="13"/>
+    <tableColumn id="4" name="I want to…" dataDxfId="12"/>
+    <tableColumn id="5" name="so that…" dataDxfId="11"/>
+    <tableColumn id="6" name="notes" dataDxfId="10"/>
+    <tableColumn id="9" name="acceptance criteria" dataDxfId="9"/>
+    <tableColumn id="11" name="added in sprint" dataDxfId="8"/>
+    <tableColumn id="10" name="closed in sprint" dataDxfId="7"/>
+    <tableColumn id="8" name="story points" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1848,7 +1842,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -1930,28 +1924,28 @@
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="K3" s="4" t="str">
         <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
-        <v>As a / an user I want to view a set of popular template site. so that I can quickly choose what is suitable  for coperation.</v>
+        <v>As a / an user I want to view a set of popular template site. so that I can overview available template/theme site</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="16"/>
@@ -1965,16 +1959,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="16"/>
@@ -1983,21 +1977,21 @@
       </c>
       <c r="K5" s="4" t="str">
         <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
-        <v>As a / an user I want to register on the website so that I can access secure areas.</v>
+        <v>As a / an user I want to register on the website so that I can become a member</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="3"/>
@@ -2008,72 +2002,74 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="K7" s="4" t="str">
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="K8" s="4" t="str">
         <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
-        <v>As a / an admin I want to view dashboard page so that I can control and view statictis of the website.</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="21"/>
+        <v>As a / an authenticated user I want to be able to manage my profile details so that I can update or changed personal details and view created template history</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
       <c r="K9" s="4" t="str">
         <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
-        <v>As a / an authenticated user I want to be able to manage my profile details so that I can update or changed personal details and view created template</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+        <v>As a / an authenticated user I want to be able to log out of the website so that I can my private information is kept secure when accessing the site on a shared computer</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>28</v>
@@ -2083,90 +2079,90 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
+      <c r="H10" s="6"/>
       <c r="K10" s="4" t="str">
         <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
-        <v>As a / an authenticated user I want to be able to log out of the website so that I can my private information is kept secure when accessing the site on a shared computer</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>As a / an authenticated user I want to view all available template so that I can choose quickly a template site</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="K11" s="4" t="str">
         <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
-        <v>As a / an authenticated user I want to view all available template so that I can choose quickly a template site</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+        <v>As a / an authenticated user I want to search for template by main color, display type so that I can choose what is the most suitable template/theme for corporation</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="K12" s="4" t="str">
         <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
-        <v>As a / an authenticated user I want to search for template by main color, display type so that I can choose what is the most suitable for corporation</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>As a / an authenticated user I want to drag &amp; drop site element so that I can build content of each page</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="21"/>
       <c r="K13" s="4" t="str">
         <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
-        <v>As a / an authenticated user I want to drag &amp; drop site element so that I can  create a backbone of a catalogue site</v>
+        <v>As a / an authenticated user I want to view site in two different devices (computer or mobile) so that I can design website under different devices's view.</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="23"/>
@@ -2174,45 +2170,41 @@
       <c r="I14" s="21"/>
       <c r="K14" s="4" t="str">
         <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
-        <v>As a / an authenticated user I want to view site in two different devices (computer or mobile) so that I can design website under different devices's view.</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+        <v>As a / an authenticated user I want to choose layout, font type, backgroud  so that I can choose what is the most suitable for products catalogue website</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="21"/>
-      <c r="K15" s="4" t="str">
-        <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
-        <v>As a / an authenticated user I want to choose layout type, backgroud  so that I can choose what is the most suitable for products catalogue website</v>
-      </c>
     </row>
     <row r="16" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
@@ -2226,35 +2218,35 @@
     <row r="17" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="23"/>
@@ -2262,22 +2254,22 @@
       <c r="I18" s="21"/>
       <c r="K18" s="4" t="str">
         <f>"As a / an " &amp; Table1[[#This Row],[as a/an]] &amp; " I want to " &amp; Table1[[#This Row],[I want to…]] &amp; " so that I can " &amp; Table1[[#This Row],[so that I can…]]</f>
-        <v>As a / an authenticated user I want to Add new template so that I can add new template to templeta page. Design, naming, pricing this template</v>
+        <v>As a / an authenticated user I want to handle created template so that I can add, remove created template.</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="21" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="23"/>
@@ -2287,16 +2279,16 @@
     <row r="20" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="21" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="23"/>
@@ -2305,7 +2297,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:I1048576">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2369,7 +2361,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -2381,7 +2373,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -2489,22 +2481,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:J1048576">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:J6">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>#REF!="rejected"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2542,12 +2534,12 @@
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -2555,33 +2547,33 @@
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="29" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="15" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="26"/>
@@ -2841,54 +2833,14 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-155</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-155</Url><Description>WORK-769-155</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
 <xsd:schema targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f7c28edf12e174e47f2c7bd2736e8bd" ns2:_="" ns3:_="" ns4:_="" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d93dc7d-5998-434b-bf34-aa89b432ec07" xmlns:ns3="$ListId:Shared Documents;" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4">
 <xsd:import namespace="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
 <xsd:import namespace="$ListId:Shared Documents;"/>
@@ -3062,42 +3014,64 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-155</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-155</Url><Description>WORK-769-155</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29BDFB93-A148-4832-8767-0A894C12A9C9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8575168F-6331-41DA-B879-8152475B9854}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C0C9F9C-98B5-480F-B2D6-CAE7CFAF0133}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{409E313D-90F0-4096-93B6-F0B4A8E845DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3117,10 +3091,28 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C0C9F9C-98B5-480F-B2D6-CAE7CFAF0133}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8575168F-6331-41DA-B879-8152475B9854}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29BDFB93-A148-4832-8767-0A894C12A9C9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>